--- a/data/templates/01.Binder.xlsx
+++ b/data/templates/01.Binder.xlsx
@@ -1,89 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C20D2-DA5C-4414-80E3-A99C60AB76BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80DA14-DFD9-4B2C-B0CB-95AD766DA24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14745" yWindow="420" windowWidth="13200" windowHeight="14940" xr2:uid="{2C62E538-BA2C-49F5-AA6F-5AE1381476C8}"/>
+    <workbookView xWindow="-17100" yWindow="390" windowWidth="19140" windowHeight="15210" xr2:uid="{2C62E538-BA2C-49F5-AA6F-5AE1381476C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="바인더 작업일지" sheetId="1" r:id="rId1"/>
+    <sheet name="원본" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="approver">'바인더 작업일지'!$L$5</definedName>
-    <definedName name="binderSolution">'바인더 작업일지'!$K$12</definedName>
-    <definedName name="binderWeightEndTime">'바인더 작업일지'!$L$21</definedName>
-    <definedName name="binderWeightInput">'바인더 작업일지'!$E$21</definedName>
-    <definedName name="binderWeightRpmHigh">'바인더 작업일지'!$J$21</definedName>
-    <definedName name="binderWeightRpmLow">'바인더 작업일지'!$I$21</definedName>
-    <definedName name="binderWeightStartTime">'바인더 작업일지'!$K$21</definedName>
-    <definedName name="binderWeightTemp">'바인더 작업일지'!$H$21</definedName>
-    <definedName name="cleanCheck">'바인더 작업일지'!$G$29</definedName>
-    <definedName name="equipmentCheckResult">'바인더 작업일지'!$C$27</definedName>
-    <definedName name="equipmentIssue">'바인더 작업일지'!$K$27</definedName>
-    <definedName name="jigNumber">'바인더 작업일지'!$G$27</definedName>
-    <definedName name="line">'바인더 작업일지'!$C$8</definedName>
-    <definedName name="lot">'바인더 작업일지'!$C$15</definedName>
-    <definedName name="manufactureDate">'바인더 작업일지'!$C$7</definedName>
-    <definedName name="material1ActualInput">'바인더 작업일지'!$I$12</definedName>
-    <definedName name="material1Composition">'바인더 작업일지'!$C$12</definedName>
-    <definedName name="material1Lot">'바인더 작업일지'!$E$12</definedName>
-    <definedName name="material1Name">'바인더 작업일지'!$A$12</definedName>
-    <definedName name="material1PlannedInput">'바인더 작업일지'!$G$12</definedName>
-    <definedName name="material2ActualInput">'바인더 작업일지'!$I$13</definedName>
-    <definedName name="material2Composition">'바인더 작업일지'!$C$13</definedName>
-    <definedName name="material2Lot">'바인더 작업일지'!$E$13</definedName>
-    <definedName name="material2Name">'바인더 작업일지'!$A$13</definedName>
-    <definedName name="material2PlannedInput">'바인더 작업일지'!$G$13</definedName>
-    <definedName name="mixing1EndTime">'바인더 작업일지'!$L$22</definedName>
-    <definedName name="mixing1Input">'바인더 작업일지'!$E$22</definedName>
-    <definedName name="mixing1RpmHigh">'바인더 작업일지'!$J$22</definedName>
-    <definedName name="mixing1RpmLow">'바인더 작업일지'!$I$22</definedName>
-    <definedName name="mixing1StartTime">'바인더 작업일지'!$K$22</definedName>
-    <definedName name="mixing1Temp">'바인더 작업일지'!$H$22</definedName>
-    <definedName name="mixing2EndTime">'바인더 작업일지'!$L$24</definedName>
-    <definedName name="mixing2Input">'바인더 작업일지'!$E$24</definedName>
-    <definedName name="mixing2RpmHigh">'바인더 작업일지'!$J$24</definedName>
-    <definedName name="mixing2RpmLow">'바인더 작업일지'!$I$24</definedName>
-    <definedName name="mixing2StartTime">'바인더 작업일지'!$K$24</definedName>
-    <definedName name="mixing2Temp">'바인더 작업일지'!$H$24</definedName>
-    <definedName name="nmpWeightEndTime">'바인더 작업일지'!$L$20</definedName>
-    <definedName name="nmpWeightInput">'바인더 작업일지'!$E$20</definedName>
-    <definedName name="nmpWeightRpmHigh">'바인더 작업일지'!$J$20</definedName>
-    <definedName name="nmpWeightRpmLow">'바인더 작업일지'!$I$20</definedName>
-    <definedName name="nmpWeightStartTime">'바인더 작업일지'!$K$20</definedName>
-    <definedName name="nmpWeightTemp">'바인더 작업일지'!$H$20</definedName>
-    <definedName name="plant">'바인더 작업일지'!$G$8</definedName>
-    <definedName name="productionId">'바인더 작업일지'!$G$7</definedName>
-    <definedName name="remark">'바인더 작업일지'!$A$31</definedName>
-    <definedName name="reviewer">'바인더 작업일지'!$K$5</definedName>
-    <definedName name="safety">'바인더 작업일지'!$K$29</definedName>
-    <definedName name="scrappingEndTime">'바인더 작업일지'!$L$23</definedName>
-    <definedName name="scrappingInput">'바인더 작업일지'!$E$23</definedName>
-    <definedName name="scrappingRpmHigh">'바인더 작업일지'!$J$23</definedName>
-    <definedName name="scrappingRpmLow">'바인더 작업일지'!$I$23</definedName>
-    <definedName name="scrappingStartTime">'바인더 작업일지'!$K$23</definedName>
-    <definedName name="scrappingTemp">'바인더 작업일지'!$H$23</definedName>
-    <definedName name="shift">'바인더 작업일지'!$K$8</definedName>
-    <definedName name="solidContent1">'바인더 작업일지'!$H$16</definedName>
-    <definedName name="solidContent2">'바인더 작업일지'!$J$16</definedName>
-    <definedName name="solidContent3">'바인더 작업일지'!$L$16</definedName>
-    <definedName name="stabilizationEndTime">'바인더 작업일지'!$L$25</definedName>
-    <definedName name="stabilizationInput">'바인더 작업일지'!$E$25</definedName>
-    <definedName name="stabilizationRpmHigh">'바인더 작업일지'!$J$25</definedName>
-    <definedName name="stabilizationRpmLow">'바인더 작업일지'!$I$25</definedName>
-    <definedName name="stabilizationStartTime">'바인더 작업일지'!$K$25</definedName>
-    <definedName name="stabilizationTemp">'바인더 작업일지'!$H$25</definedName>
-    <definedName name="tempHumi">'바인더 작업일지'!$C$29</definedName>
-    <definedName name="viscosity">'바인더 작업일지'!$C$16</definedName>
-    <definedName name="worker">'바인더 작업일지'!$K$7</definedName>
-    <definedName name="writer">'바인더 작업일지'!$J$5</definedName>
+    <definedName name="approver">원본!$L$5</definedName>
+    <definedName name="binderSolution">원본!$K$12</definedName>
+    <definedName name="binderWeightEndTime">원본!$L$21</definedName>
+    <definedName name="binderWeightInput">원본!$E$21</definedName>
+    <definedName name="binderWeightRpmHigh">원본!$J$21</definedName>
+    <definedName name="binderWeightRpmLow">원본!$I$21</definedName>
+    <definedName name="binderWeightStartTime">원본!$K$21</definedName>
+    <definedName name="binderWeightTemp">원본!$H$21</definedName>
+    <definedName name="cleanCheck">원본!$G$29</definedName>
+    <definedName name="equipmentCheckResult">원본!$C$27</definedName>
+    <definedName name="equipmentIssue">원본!$K$27</definedName>
+    <definedName name="jigNumber">원본!$G$27</definedName>
+    <definedName name="line">원본!$C$8</definedName>
+    <definedName name="lot">원본!$C$15</definedName>
+    <definedName name="manufactureDate">원본!$C$7</definedName>
+    <definedName name="material1ActualInput">원본!$I$12</definedName>
+    <definedName name="material1Composition">원본!$C$12</definedName>
+    <definedName name="material1Lot">원본!$E$12</definedName>
+    <definedName name="material1Name">원본!$A$12</definedName>
+    <definedName name="material1PlannedInput">원본!$G$12</definedName>
+    <definedName name="material2ActualInput">원본!$I$13</definedName>
+    <definedName name="material2Composition">원본!$C$13</definedName>
+    <definedName name="material2Lot">원본!$E$13</definedName>
+    <definedName name="material2Name">원본!$A$13</definedName>
+    <definedName name="material2PlannedInput">원본!$G$13</definedName>
+    <definedName name="mixing1EndTime">원본!$L$22</definedName>
+    <definedName name="mixing1Input">원본!$E$22</definedName>
+    <definedName name="mixing1RpmHigh">원본!$J$22</definedName>
+    <definedName name="mixing1RpmLow">원본!$I$22</definedName>
+    <definedName name="mixing1StartTime">원본!$K$22</definedName>
+    <definedName name="mixing1Temp">원본!$H$22</definedName>
+    <definedName name="mixing2EndTime">원본!$L$24</definedName>
+    <definedName name="mixing2Input">원본!$E$24</definedName>
+    <definedName name="mixing2RpmHigh">원본!$J$24</definedName>
+    <definedName name="mixing2RpmLow">원본!$I$24</definedName>
+    <definedName name="mixing2StartTime">원본!$K$24</definedName>
+    <definedName name="mixing2Temp">원본!$H$24</definedName>
+    <definedName name="nmpWeightEndTime">원본!$L$20</definedName>
+    <definedName name="nmpWeightInput">원본!$E$20</definedName>
+    <definedName name="nmpWeightRpmHigh">원본!$J$20</definedName>
+    <definedName name="nmpWeightRpmLow">원본!$I$20</definedName>
+    <definedName name="nmpWeightStartTime">원본!$K$20</definedName>
+    <definedName name="nmpWeightTemp">원본!$H$20</definedName>
+    <definedName name="plant">원본!$G$8</definedName>
+    <definedName name="productionId">원본!$G$7</definedName>
+    <definedName name="remark">원본!$A$31</definedName>
+    <definedName name="reviewer">원본!$K$5</definedName>
+    <definedName name="safety">원본!$K$29</definedName>
+    <definedName name="scrappingEndTime">원본!$L$23</definedName>
+    <definedName name="scrappingInput">원본!$E$23</definedName>
+    <definedName name="scrappingRpmHigh">원본!$J$23</definedName>
+    <definedName name="scrappingRpmLow">원본!$I$23</definedName>
+    <definedName name="scrappingStartTime">원본!$K$23</definedName>
+    <definedName name="scrappingTemp">원본!$H$23</definedName>
+    <definedName name="shift">원본!$K$8</definedName>
+    <definedName name="solidContent1">원본!$H$16</definedName>
+    <definedName name="solidContent2">원본!$J$16</definedName>
+    <definedName name="solidContent3">원본!$L$16</definedName>
+    <definedName name="stabilizationEndTime">원본!$L$25</definedName>
+    <definedName name="stabilizationInput">원본!$E$25</definedName>
+    <definedName name="stabilizationRpmHigh">원본!$J$25</definedName>
+    <definedName name="stabilizationRpmLow">원본!$I$25</definedName>
+    <definedName name="stabilizationStartTime">원본!$K$25</definedName>
+    <definedName name="stabilizationTemp">원본!$H$25</definedName>
+    <definedName name="tempHumi">원본!$C$29</definedName>
+    <definedName name="viscosity">원본!$C$16</definedName>
+    <definedName name="worker">원본!$K$7</definedName>
+    <definedName name="writer">원본!$J$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -597,6 +597,72 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -606,55 +672,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -684,92 +738,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,17 +1120,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
@@ -1142,246 +1142,246 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="37" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="40" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="40" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="54" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="37" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="54" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="14" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="5">
         <v>1</v>
       </c>
@@ -1396,56 +1396,56 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="48" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="42" t="s">
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="24" t="s">
+      <c r="J18" s="10"/>
+      <c r="K18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="43"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1460,17 +1460,17 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1478,15 +1478,15 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1494,17 +1494,17 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1512,15 +1512,15 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1528,15 +1528,15 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="12" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1544,15 +1544,15 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="15" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1560,203 +1560,265 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="11" t="s">
+      <c r="F27" s="24"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="17" t="s">
+      <c r="J27" s="24"/>
+      <c r="K27" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="18"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="56"/>
+      <c r="E29" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="35" t="s">
+      <c r="F29" s="54"/>
+      <c r="G29" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="9" t="s">
+      <c r="H29" s="56"/>
+      <c r="I29" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="35" t="s">
+      <c r="J29" s="54"/>
+      <c r="K29" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="36"/>
+      <c r="L29" s="56"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="28"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="49"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="49"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="49"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="34"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A31:L37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I18:J18"/>
@@ -1773,68 +1835,6 @@
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C15:F15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A31:L37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
